--- a/posesiones/1479709.xlsx
+++ b/posesiones/1479709.xlsx
@@ -1880,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2074,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>28</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>9</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>28</v>
@@ -2571,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>8</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2671,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>5</v>
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>8</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>4</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>26</v>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>7</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>8</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>20</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R35">
         <v>11</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3671,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R39">
         <v>32</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44">
         <v>10</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R46">
         <v>16</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>17</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4218,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>25</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4365,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R53">
         <v>14</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4509,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R56">
         <v>23</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4609,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R58">
         <v>14</v>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R61">
         <v>21</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R63">
         <v>7</v>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R65">
         <v>12</v>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R67">
         <v>23</v>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R69">
         <v>16</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5271,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>22</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R73">
         <v>23</v>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R75">
         <v>8</v>
@@ -5527,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R76">
         <v>14</v>
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5627,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R78">
         <v>14</v>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5730,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R80">
         <v>11</v>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R82">
         <v>16</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5936,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R84">
         <v>5</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R95">
         <v>10</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6562,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R97">
         <v>19</v>
@@ -6615,7 +6615,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R98">
         <v>18</v>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6903,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R104">
         <v>26</v>
@@ -6956,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R105">
         <v>4</v>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -7250,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R111">
         <v>2</v>
@@ -7294,10 +7294,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7526,10 +7526,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7579,7 +7579,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R118">
         <v>8</v>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7776,7 +7776,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R122">
         <v>19</v>
@@ -7829,7 +7829,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R123">
         <v>20</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7932,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R125">
         <v>12</v>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8032,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R127">
         <v>16</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8132,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R129">
         <v>21</v>
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8232,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R131">
         <v>5</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R134">
         <v>14</v>
@@ -8432,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8482,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R136">
         <v>9</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8582,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8867,7 +8867,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R144">
         <v>18</v>
@@ -8920,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R145">
         <v>22</v>
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R147">
         <v>15</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9123,7 +9123,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R149">
         <v>9</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9220,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R153">
         <v>21</v>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R156">
         <v>7</v>
@@ -9520,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9570,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R158">
         <v>12</v>
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9670,7 +9670,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R160">
         <v>15</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9764,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9905,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9955,7 +9955,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R166">
         <v>19</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10055,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R168">
         <v>14</v>
@@ -10108,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R169">
         <v>18</v>
@@ -10158,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10208,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R171">
         <v>13</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10311,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R173">
         <v>14</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10411,7 +10411,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R175">
         <v>17</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10552,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10649,7 +10649,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R180">
         <v>36</v>
@@ -10702,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R181">
         <v>22</v>
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10993,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R187">
         <v>23</v>
@@ -11043,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11090,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11325,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11372,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R195">
         <v>19</v>
@@ -11425,7 +11425,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R196">
         <v>16</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R198">
         <v>10</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11625,7 +11625,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R200">
         <v>9</v>
@@ -11675,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11719,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11813,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11860,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11907,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11957,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R207">
         <v>19</v>
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12107,7 +12107,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R210">
         <v>10</v>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R212">
         <v>16</v>
@@ -12257,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R215">
         <v>20</v>
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12457,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R217">
         <v>13</v>
@@ -12507,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12554,7 +12554,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12601,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12651,7 +12651,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R221">
         <v>0</v>
@@ -12701,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12842,7 +12842,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12892,7 +12892,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R226">
         <v>27</v>
@@ -12942,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13036,7 +13036,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13177,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13274,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R234">
         <v>15</v>
@@ -13327,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13377,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R236">
         <v>6</v>
@@ -13421,10 +13421,10 @@
         <v>1</v>
       </c>
       <c r="P237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q237">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13471,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13518,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13559,10 +13559,10 @@
         <v>1</v>
       </c>
       <c r="P240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q240">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13612,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R241">
         <v>17</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R243">
         <v>10</v>
@@ -13765,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R245">
         <v>14</v>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13915,7 +13915,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R247">
         <v>15</v>
@@ -13965,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14015,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R249">
         <v>9</v>
@@ -14065,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14109,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R252">
         <v>16</v>
@@ -14212,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14262,7 +14262,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R254">
         <v>26</v>
@@ -14315,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R256">
         <v>13</v>
@@ -14415,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14562,7 +14562,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R260">
         <v>10</v>
@@ -14615,7 +14615,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R261">
         <v>9</v>
@@ -14665,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14715,7 +14715,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R263">
         <v>13</v>
@@ -14765,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14815,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R265">
         <v>25</v>
@@ -14865,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14912,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14959,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15006,7 +15006,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15053,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15100,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15147,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15194,7 +15194,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15244,7 +15244,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R274">
         <v>22</v>
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15344,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15391,7 +15391,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15438,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15488,7 +15488,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R279">
         <v>25</v>
@@ -15538,7 +15538,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15588,7 +15588,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R281">
         <v>11</v>
@@ -15641,7 +15641,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R282">
         <v>12</v>
@@ -15694,7 +15694,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15744,7 +15744,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R284">
         <v>20</v>
@@ -15794,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15841,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15888,7 +15888,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15935,7 +15935,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15979,7 +15979,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16026,7 +16026,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16073,7 +16073,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16120,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16167,7 +16167,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16217,7 +16217,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R294">
         <v>0</v>
@@ -16270,7 +16270,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R295">
         <v>14</v>
@@ -16323,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16373,7 +16373,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R297">
         <v>24</v>
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16473,7 +16473,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R299">
         <v>13</v>
@@ -16523,7 +16523,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16570,7 +16570,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16617,7 +16617,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16667,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16717,7 +16717,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R304">
         <v>12</v>
@@ -16770,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16820,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R306">
         <v>5</v>
@@ -16870,7 +16870,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16920,7 +16920,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R308">
         <v>6</v>
@@ -16973,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17023,7 +17023,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R310">
         <v>9</v>
@@ -17073,7 +17073,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17123,7 +17123,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17217,7 +17217,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17267,7 +17267,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R315">
         <v>24</v>
@@ -17317,7 +17317,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17364,7 +17364,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17411,7 +17411,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17458,7 +17458,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17505,7 +17505,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17552,7 +17552,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17602,7 +17602,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R322">
         <v>10</v>
@@ -17652,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R324">
         <v>14</v>
@@ -17752,7 +17752,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17802,7 +17802,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R326">
         <v>5</v>
@@ -17855,7 +17855,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R327">
         <v>17</v>
@@ -17905,7 +17905,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R329">
         <v>19</v>
@@ -18008,7 +18008,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18058,7 +18058,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R331">
         <v>18</v>
@@ -18111,7 +18111,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18161,7 +18161,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R333">
         <v>5</v>
@@ -18211,7 +18211,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18258,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18305,7 +18305,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18355,7 +18355,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R337">
         <v>25</v>
@@ -18408,7 +18408,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18455,7 +18455,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18505,7 +18505,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18552,7 +18552,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18605,7 +18605,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R342">
         <v>26</v>
@@ -18655,7 +18655,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18702,7 +18702,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18749,7 +18749,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18796,7 +18796,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18843,7 +18843,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18890,7 +18890,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18937,7 +18937,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18987,7 +18987,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R350">
         <v>13</v>
@@ -19040,7 +19040,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19090,7 +19090,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R352">
         <v>7</v>
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19190,7 +19190,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R354">
         <v>14</v>
@@ -19243,7 +19243,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19293,7 +19293,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R356">
         <v>15</v>
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19437,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19484,7 +19484,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19534,7 +19534,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R361">
         <v>24</v>
@@ -19584,7 +19584,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19678,7 +19678,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19725,7 +19725,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19772,7 +19772,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19819,7 +19819,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19866,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19913,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19960,7 +19960,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20007,7 +20007,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20057,7 +20057,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R372">
         <v>5</v>
@@ -20110,7 +20110,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R373">
         <v>6</v>
@@ -20163,7 +20163,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20213,7 +20213,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R375">
         <v>3</v>
@@ -20263,7 +20263,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20304,10 +20304,10 @@
         <v>1</v>
       </c>
       <c r="P377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q377">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20354,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20401,7 +20401,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20448,7 +20448,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20495,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20542,7 +20542,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20589,7 +20589,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20630,10 +20630,10 @@
         <v>1</v>
       </c>
       <c r="P384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q384">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20683,7 +20683,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R385">
         <v>18</v>
@@ -20736,7 +20736,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20783,7 +20783,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20830,7 +20830,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20880,7 +20880,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R389">
         <v>12</v>
@@ -20930,7 +20930,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20980,7 +20980,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R391">
         <v>17</v>
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21083,7 +21083,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R393">
         <v>10</v>
@@ -21136,7 +21136,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R394">
         <v>16</v>
@@ -21186,7 +21186,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21236,7 +21236,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R396">
         <v>18</v>
@@ -21283,7 +21283,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21330,7 +21330,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21377,7 +21377,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21424,7 +21424,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21471,7 +21471,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21518,7 +21518,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21568,7 +21568,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R403">
         <v>19</v>
@@ -21618,7 +21618,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21665,7 +21665,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R405">
         <v>25</v>
@@ -21718,7 +21718,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R406">
         <v>13</v>
@@ -21771,7 +21771,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R407">
         <v>15</v>
@@ -21824,7 +21824,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21874,7 +21874,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R409">
         <v>9</v>
@@ -21924,7 +21924,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21974,7 +21974,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R411">
         <v>5</v>
@@ -22024,7 +22024,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22071,7 +22071,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22118,7 +22118,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22212,7 +22212,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22306,7 +22306,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22356,7 +22356,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R419">
         <v>19</v>
@@ -22409,7 +22409,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R420">
         <v>13</v>
@@ -22459,7 +22459,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22509,7 +22509,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R422">
         <v>20</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22609,7 +22609,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22656,7 +22656,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22703,7 +22703,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22797,7 +22797,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22847,7 +22847,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22894,7 +22894,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22941,7 +22941,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22988,7 +22988,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23038,7 +23038,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R433">
         <v>28</v>
@@ -23088,7 +23088,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23135,7 +23135,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23232,7 +23232,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23279,7 +23279,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23373,7 +23373,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23420,7 +23420,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23514,7 +23514,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23564,7 +23564,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R444">
         <v>26</v>
@@ -23614,7 +23614,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23708,7 +23708,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23758,7 +23758,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23805,7 +23805,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23996,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24046,7 +24046,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R454">
         <v>47</v>
@@ -24099,7 +24099,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24149,7 +24149,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R456">
         <v>11</v>
@@ -24199,7 +24199,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24249,7 +24249,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R458">
         <v>8</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24352,7 +24352,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R460">
         <v>6</v>
@@ -24405,7 +24405,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R461">
         <v>20</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24549,7 +24549,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24596,7 +24596,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24690,7 +24690,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24787,7 +24787,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R469">
         <v>25</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24887,7 +24887,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24981,7 +24981,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25028,7 +25028,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25078,7 +25078,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R475">
         <v>17</v>
@@ -25131,7 +25131,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R476">
         <v>12</v>
@@ -25184,7 +25184,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25231,7 +25231,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25325,7 +25325,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25422,7 +25422,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R482">
         <v>21</v>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25525,7 +25525,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R484">
         <v>8</v>
@@ -25575,7 +25575,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25625,7 +25625,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R486">
         <v>5</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25725,7 +25725,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25775,7 +25775,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R489">
         <v>13</v>
@@ -25825,7 +25825,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25875,7 +25875,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R491">
         <v>17</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25978,7 +25978,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R493">
         <v>11</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26078,7 +26078,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R495">
         <v>5</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26181,7 +26181,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R497">
         <v>7</v>
@@ -26231,7 +26231,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26278,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26325,7 +26325,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26419,7 +26419,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26469,7 +26469,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R503">
         <v>13</v>
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26572,7 +26572,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R505">
         <v>13</v>
@@ -26625,7 +26625,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26675,7 +26675,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R507">
         <v>20</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26775,7 +26775,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R509">
         <v>13</v>
@@ -26831,7 +26831,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R510">
         <v>3</v>
@@ -26875,10 +26875,10 @@
         <v>1</v>
       </c>
       <c r="P511" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q511">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
